--- a/biology/Botanique/Potentille_argentée/Potentille_argentée.xlsx
+++ b/biology/Botanique/Potentille_argentée/Potentille_argentée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potentilla argentea
 La potentille argentée (Potentilla argenteaL.) est une espèce de plantes à fleurs de la famille des Rosacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Autres noms vernaculaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ansérine, Bec d'oie, Herbe aux oies.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fragaria argentea (L.) Crantz
 Hypargyrium argentatum (Jord.) Fourr.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace d'une taille de 20 à 50 cm, tomenteuse-blanchâtre, à souche courte. Sur les tiges très feuillées s'insèrent une ou plusieurs fleurs.
 Les feuilles sont digitées, à 5 folioles, à bords un peu roulés, vertes en dessus, blanches-tomenteuses en dessous, rétrécies et entières à la base, élargies et profondément incisées-dentées dans le haut.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Période de floraison : mai-septembre
@@ -631,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,9 +669,11 @@
           <t>Insectes galligènes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trois insectes présentent des galles sur Potentilla argentea. Il s'agit de Diastrophus mayri, formant un renflement de la tige de 10 à 30mm de long sur 5 à 10mm de diamètre, bosselé et contenant plusieurs loges individuelles ; Perrisia potentillae formant des boutons gonflés et aux larves grégaires et Eriophyes parvulus formant un épais feutrage blanc jaunâtre sur toutes les parties vertes[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trois insectes présentent des galles sur Potentilla argentea. Il s'agit de Diastrophus mayri, formant un renflement de la tige de 10 à 30mm de long sur 5 à 10mm de diamètre, bosselé et contenant plusieurs loges individuelles ; Perrisia potentillae formant des boutons gonflés et aux larves grégaires et Eriophyes parvulus formant un épais feutrage blanc jaunâtre sur toutes les parties vertes.
 </t>
         </is>
       </c>
@@ -662,7 +684,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Potentille_argent%C3%A9e</t>
+          <t>Potentille_argentée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -680,7 +702,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique : Europe (surtout centrale), dans presque toute la France ; Asie occidentale. Amérique de Nord.
 </t>
